--- a/variant_17/Задание 18/18.xlsx
+++ b/variant_17/Задание 18/18.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Admin\Downloads\10 вариант\Файлы\Задание 18\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,8 +19,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,13 +37,27 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -63,9 +72,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -126,7 +136,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -161,7 +171,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -338,7 +348,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -346,15 +356,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>86</v>
       </c>
@@ -386,7 +399,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>96</v>
       </c>
@@ -418,7 +431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>98</v>
       </c>
@@ -450,7 +463,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>82</v>
       </c>
@@ -482,7 +495,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>22</v>
       </c>
@@ -514,7 +527,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>21</v>
       </c>
@@ -546,7 +559,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>35</v>
       </c>
@@ -578,7 +591,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>15</v>
       </c>
@@ -610,7 +623,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>39</v>
       </c>
@@ -642,7 +655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>17</v>
       </c>
@@ -674,7 +687,828 @@
         <v>75</v>
       </c>
     </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f xml:space="preserve"> A1 + MAX(A13)</f>
+        <v>511</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" ref="B12:I12" si="0" xml:space="preserve"> B1 + MAX(A12,B13)</f>
+        <v>618</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>772</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>817</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>996</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>1134</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>1222</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>1264</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>1337</v>
+      </c>
+      <c r="J12" s="2">
+        <f xml:space="preserve"> J1 + MAX(I12,J13)</f>
+        <v>1388</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" ref="L12:T12" si="1">A1 + MIN(K12,L13)</f>
+        <v>511</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="1"/>
+        <v>459</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="1"/>
+        <v>466</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="1"/>
+        <v>457</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="1"/>
+        <v>548</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="1"/>
+        <v>644</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="1"/>
+        <v>628</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="1"/>
+        <v>535</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="1"/>
+        <v>548</v>
+      </c>
+      <c r="U12" s="2">
+        <f>J1 + MIN(T12,U13)</f>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" ref="A13:A21" si="2" xml:space="preserve"> A2 + MAX(A14)</f>
+        <v>425</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" ref="B13:B21" si="3" xml:space="preserve"> B2 + MAX(A13,B14)</f>
+        <v>578</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ref="C13:C21" si="4" xml:space="preserve"> C2 + MAX(B13,C14)</f>
+        <v>731</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:D21" si="5" xml:space="preserve"> D2 + MAX(C13,D14)</f>
+        <v>804</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ref="E13:E21" si="6" xml:space="preserve"> E2 + MAX(D13,E14)</f>
+        <v>905</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" ref="F13:F21" si="7" xml:space="preserve"> F2 + MAX(E13,F14)</f>
+        <v>1038</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" ref="G13:G21" si="8" xml:space="preserve"> G2 + MAX(F13,G14)</f>
+        <v>1101</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" ref="H13:H21" si="9" xml:space="preserve"> H2 + MAX(G13,H14)</f>
+        <v>1133</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" ref="I13:J21" si="10" xml:space="preserve"> I2 + MAX(H13,I14)</f>
+        <v>1164</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="10"/>
+        <v>1165</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" ref="L13:L21" si="11">A2 + MIN(K13,L14)</f>
+        <v>425</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" ref="M13:M21" si="12">B2 + MIN(L13,M14)</f>
+        <v>419</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" ref="N13:N21" si="13">C2 + MIN(M13,N14)</f>
+        <v>425</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" ref="O13:O21" si="14">D2 + MIN(N13,O14)</f>
+        <v>444</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" ref="P13:P21" si="15">E2 + MIN(O13,P14)</f>
+        <v>502</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" ref="Q13:Q21" si="16">F2 + MIN(P13,Q14)</f>
+        <v>582</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" ref="R13:R21" si="17">G2 + MIN(Q13,R14)</f>
+        <v>540</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" ref="S13:S21" si="18">H2 + MIN(R13,S14)</f>
+        <v>493</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" ref="T13:U21" si="19">I2 + MIN(S13,T14)</f>
+        <v>475</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="19"/>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" si="2"/>
+        <v>329</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="3"/>
+        <v>555</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="4"/>
+        <v>725</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="5"/>
+        <v>785</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="6"/>
+        <v>847</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="7"/>
+        <v>958</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="8"/>
+        <v>993</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="9"/>
+        <v>1015</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="10"/>
+        <v>1045</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" ref="J14:J21" si="20" xml:space="preserve"> J3 + MAX(I14,J15)</f>
+        <v>1127</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="11"/>
+        <v>329</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="12"/>
+        <v>396</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="13"/>
+        <v>467</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="14"/>
+        <v>439</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="15"/>
+        <v>475</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="16"/>
+        <v>554</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="17"/>
+        <v>477</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="18"/>
+        <v>461</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="19"/>
+        <v>444</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" ref="U14:U21" si="21">J3 + MIN(T14,U15)</f>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" si="2"/>
+        <v>231</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="3"/>
+        <v>469</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="4"/>
+        <v>636</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="5"/>
+        <v>719</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="6"/>
+        <v>811</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="7"/>
+        <v>863</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="8"/>
+        <v>927</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="9"/>
+        <v>985</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="10"/>
+        <v>990</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="20"/>
+        <v>1043</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="11"/>
+        <v>231</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="12"/>
+        <v>310</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="13"/>
+        <v>378</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="14"/>
+        <v>379</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="15"/>
+        <v>443</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="16"/>
+        <v>459</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="17"/>
+        <v>442</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="18"/>
+        <v>439</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="19"/>
+        <v>414</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" si="21"/>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="3"/>
+        <v>370</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="4"/>
+        <v>539</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="5"/>
+        <v>582</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="6"/>
+        <v>674</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="7"/>
+        <v>786</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="8"/>
+        <v>813</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="9"/>
+        <v>816</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="10"/>
+        <v>844</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="20"/>
+        <v>966</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="11"/>
+        <v>149</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="12"/>
+        <v>211</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="13"/>
+        <v>281</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="14"/>
+        <v>296</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="15"/>
+        <v>351</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="16"/>
+        <v>407</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="17"/>
+        <v>378</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="18"/>
+        <v>381</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="19"/>
+        <v>409</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="21"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="3"/>
+        <v>293</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="4"/>
+        <v>469</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="5"/>
+        <v>489</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="6"/>
+        <v>573</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="7"/>
+        <v>700</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="8"/>
+        <v>743</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="9"/>
+        <v>796</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="10"/>
+        <v>814</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="20"/>
+        <v>915</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="11"/>
+        <v>127</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="12"/>
+        <v>134</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="13"/>
+        <v>233</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="14"/>
+        <v>253</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="15"/>
+        <v>259</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="16"/>
+        <v>321</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="17"/>
+        <v>351</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="18"/>
+        <v>394</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="19"/>
+        <v>412</v>
+      </c>
+      <c r="U17" s="1">
+        <f t="shared" si="21"/>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="3"/>
+        <v>286</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="4"/>
+        <v>370</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="5"/>
+        <v>469</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="6"/>
+        <v>567</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="7"/>
+        <v>638</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="8"/>
+        <v>713</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="9"/>
+        <v>753</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="10"/>
+        <v>792</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="20"/>
+        <v>881</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="11"/>
+        <v>106</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="12"/>
+        <v>186</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="13"/>
+        <v>229</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="14"/>
+        <v>316</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="15"/>
+        <v>408</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="16"/>
+        <v>387</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="17"/>
+        <v>370</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="18"/>
+        <v>359</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="19"/>
+        <v>398</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="21"/>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="3"/>
+        <v>206</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="4"/>
+        <v>327</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="5"/>
+        <v>355</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="6"/>
+        <v>470</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="7"/>
+        <v>503</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="8"/>
+        <v>514</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="9"/>
+        <v>552</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="10"/>
+        <v>686</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="20"/>
+        <v>771</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="12"/>
+        <v>114</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="13"/>
+        <v>197</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="14"/>
+        <v>217</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="15"/>
+        <v>311</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="16"/>
+        <v>316</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="17"/>
+        <v>295</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="18"/>
+        <v>319</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="19"/>
+        <v>391</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" si="21"/>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="4"/>
+        <v>244</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="5"/>
+        <v>335</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="6"/>
+        <v>376</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="7"/>
+        <v>385</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="8"/>
+        <v>403</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="9"/>
+        <v>528</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="10"/>
+        <v>614</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="20"/>
+        <v>659</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="11"/>
+        <v>56</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="12"/>
+        <v>133</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="13"/>
+        <v>196</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="14"/>
+        <v>287</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="15"/>
+        <v>274</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="16"/>
+        <v>283</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="17"/>
+        <v>284</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="18"/>
+        <v>341</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="19"/>
+        <v>427</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" si="21"/>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="6"/>
+        <v>233</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="7"/>
+        <v>302</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="8"/>
+        <v>402</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="9"/>
+        <v>471</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="10"/>
+        <v>490</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="20"/>
+        <v>565</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="12"/>
+        <v>86</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="13"/>
+        <v>115</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="15"/>
+        <v>233</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="16"/>
+        <v>302</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="17"/>
+        <v>402</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="18"/>
+        <v>471</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="19"/>
+        <v>490</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="21"/>
+        <v>565</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>